--- a/result_analysis.xlsx
+++ b/result_analysis.xlsx
@@ -13,12 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">Question 1</t>
+  </si>
   <si>
     <t>LLM</t>
   </si>
   <si>
-    <t xml:space="preserve">LLAMA2 Cosine Similarity</t>
+    <t xml:space="preserve">LLaMA-2 Cosine Similarity</t>
   </si>
   <si>
     <t>stablelm2</t>
@@ -86,17 +89,36 @@
   <si>
     <t>wizard-vicuna</t>
   </si>
+  <si>
+    <t xml:space="preserve">Question 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLM Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.000000"/>
@@ -140,7 +162,7 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -154,8 +176,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -165,8 +190,11 @@
     <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -205,10 +233,10 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
-              <a:t>LLAMA2 cosine similarity sorted by model size</a:t>
+              <a:rPr sz="800"/>
+              <a:t>How did the US and USSR use proxy wars during the Cold War to further their respective agendas, and which side was more justified in their actions? Provide examples to support your argument.</a:t>
             </a:r>
-            <a:endParaRPr/>
+            <a:endParaRPr sz="800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -257,7 +285,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -273,15 +301,23 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$3:$A$24</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$3:$B$24</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-26"/>
         <c:axId val="1866169501"/>
@@ -457,7 +493,1807 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="3324224" y="1747157"/>
+      <a:off x="3324224" y="355145"/>
+      <a:ext cx="4555670" cy="2726870"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="800"/>
+              <a:t>Did the Soviet Union's purported "security concerns" serve as valid justifications for its actions during the Cold War?</a:t>
+            </a:r>
+            <a:endParaRPr sz="800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>LLaMA-2 Cosine Similarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$28:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>deepseek-llm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dolphin-phi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>qwen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gemma</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>llama2-chinese</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stable-beluga</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stablelm2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>starling-lm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mistrallite</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>wizardlm-uncensored</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>mistral-openorca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mistral</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>wizard-vicuna</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>wizard-vicuna-uncensored</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>openchat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>xwinlm</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>orca2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>yi</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>solar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.891424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.736971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.826375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.633368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.892564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.852942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.783124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.867114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.840864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.878607</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.770193</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.812412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.911011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.906285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.836975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.861523</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.913953</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.865614</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.872499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.863837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-26"/>
+        <c:axId val="1866169515"/>
+        <c:axId val="1866169516"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1866169515"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866169516"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1866169516"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866169515"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="3324224" y="4744810"/>
+      <a:ext cx="4555671" cy="2726871"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="800"/>
+              <a:t>In what ways did the Cold War era shape education and academia, with a focus on the influence exerted by the United States and the USSR on curriculum development and research agendas? Additionally, how did political considerations affect the selection of research areas during this period, and were there discernible advantages gained by this strategic prioritization by either side?</a:t>
+            </a:r>
+            <a:endParaRPr sz="800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$50:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>LLaMA-2 Cosine Similarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$52:$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>deepseek-llm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dolphin-phi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>qwen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gemma</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>llama2-chinese</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stable-beluga</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stablelm2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>starling-lm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mistrallite</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>wizardlm-uncensored</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>mistral-openorca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mistral</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>wizard-vicuna</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>wizard-vicuna-uncensored</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>openchat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>xwinlm</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>orca2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>yi</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>solar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.862949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.888356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.904013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.814228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.894398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.874104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.857029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.859506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.891282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.890141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.898524</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.872508</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.890071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.923208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.882431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.892099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.919976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.910066</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.899438</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.890805</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.912017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-26"/>
+        <c:axId val="1866169529"/>
+        <c:axId val="1866169530"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1866169529"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866169530"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1866169530"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866169529"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="3324224" y="9299121"/>
+      <a:ext cx="4555671" cy="2726871"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="800"/>
+              <a:t>How did the Cold War influence Africa, Latin America, and Asia, considering the interventions by the United States and the Soviet Union, often resulting in destabilized governments, economic exploitation, and enduring socio-political turmoil?</a:t>
+            </a:r>
+            <a:endParaRPr sz="800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$74:$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>LLaMA-2 Cosine Similarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$76:$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>deepseek-llm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dolphin-phi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>qwen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gemma</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>llama2-chinese</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stable-beluga</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stablelm2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>starling-lm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mistrallite</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>wizardlm-uncensored</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>mistral-openorca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mistral</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>wizard-vicuna</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>wizard-vicuna-uncensored</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>openchat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>xwinlm</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>orca2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>yi</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>solar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$76:$B$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.910488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.861175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.919224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.777922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.873762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.860782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.902016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.873841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.880408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.905101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.896588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90626</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.904192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.895371</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.886378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.744187</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.885741</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.857295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.680789</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.918419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.906553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-26"/>
+        <c:axId val="1866169543"/>
+        <c:axId val="1866169544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1866169543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866169544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1866169544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866169543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="3324224" y="13860235"/>
+      <a:ext cx="4555671" cy="2726871"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="800"/>
+              <a:t>How can one characterize the methods employed by the United States and the USSR to disseminate propaganda during the Cold War, and to what extent did these tactics influence the ideologies and perceptions of individuals within their respective societies?</a:t>
+            </a:r>
+            <a:endParaRPr sz="800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$98:$B$99</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>LLaMA-2 Cosine Similarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$100:$A$120</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>deepseek-llm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dolphin-phi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>qwen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gemma</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>llama2-chinese</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stable-beluga</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stablelm2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>starling-lm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mistrallite</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>wizardlm-uncensored</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>mistral-openorca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mistral</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>wizard-vicuna</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>wizard-vicuna-uncensored</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>openchat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>xwinlm</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>orca2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>yi</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>solar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$100:$B$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.885816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.837609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.877472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.754151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.886402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.863154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.895211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.906132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.908338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.847339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.825239</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.916531</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.869186</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.894889</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.923489</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84176</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.908155</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.902996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-26"/>
+        <c:axId val="1866169557"/>
+        <c:axId val="1866169558"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1866169557"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866169558"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1866169558"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866169557"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="3324224" y="18432235"/>
       <a:ext cx="4555671" cy="2726871"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -540,7 +2376,2283 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1074,15 +5186,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>602796</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5442</xdr:rowOff>
+      <xdr:colOff>602795</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>281667</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
+      <xdr:colOff>281666</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1092,12 +5204,140 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="3324224" y="1747157"/>
+        <a:off x="3324224" y="355145"/>
+        <a:ext cx="4555670" cy="2726870"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602795</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281667</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="59250395" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="3324224" y="4744810"/>
         <a:ext cx="4555671" cy="2726871"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602795</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281667</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1295523544" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="3324224" y="9299121"/>
+        <a:ext cx="4555671" cy="2726871"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602795</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281667</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1728046823" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="3324224" y="13860235"/>
+        <a:ext cx="4555671" cy="2726871"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602795</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281667</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1173154521" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="3324224" y="18432235"/>
+        <a:ext cx="4555671" cy="2726871"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1599,7 +5839,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1607,196 +5847,936 @@
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="15.28125"/>
     <col customWidth="1" min="2" max="2" style="1" width="25.57421875"/>
-    <col min="3" max="3" style="1" width="9.140625"/>
-    <col min="4" max="16384" style="1" width="9.140625"/>
+    <col min="3" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.89444599430000005</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" ht="14.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.84612524099999997</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.88488823449999998</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.65030063419999995</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.89584141760000002</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.88933285250000005</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.88203843049999997</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.89745785730000005</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.8843799215</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.86348138109999995</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.84883943429999997</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.88913384029999998</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.9006559932</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.89694435340000001</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.89815140000000004</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.88828380250000005</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.89444704870000002</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.87662288259999999</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.89658585146464698</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.79996295269999995</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.80669089120000004</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.89142399999999999</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.77646000000000004</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.73697100000000004</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.82637499999999997</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.63336800000000004</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.89256400000000002</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.85294199999999998</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.84612524099999997</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="2" t="s">
+      <c r="B35" s="6">
+        <v>0.78312400000000004</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.86711400000000005</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.84086399999999994</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.87860700000000003</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.77019300000000002</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.81241200000000002</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.91101100000000002</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.90628500000000001</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.83697500000000002</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.86152300000000004</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.91395300000000002</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.86561399999999999</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.87249900000000002</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.86383699999999997</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.86294899999999997</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.88488823449999998</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="2" t="s">
+      <c r="B53" s="6">
+        <v>0.88835600000000003</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.65030063419999995</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="2" t="s">
+      <c r="B54" s="6">
+        <v>0.90401299999999996</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.89584141760000002</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="4" t="s">
+      <c r="B55" s="6">
+        <v>0.81422799999999995</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.89439800000000003</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.87410399999999999</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.85702900000000004</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.85950599999999999</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.89128200000000002</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.89014099999999996</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.89852399999999999</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0.87250799999999995</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="6">
+        <v>0.89007099999999995</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.92320800000000003</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.88243099999999997</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0.89209899999999998</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.91997600000000002</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.91006600000000004</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.89943799999999996</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.88933285250000005</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5">
-      <c r="A9" s="2" t="s">
+      <c r="B71" s="6">
+        <v>0.89080499999999996</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.91201699999999997</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="6">
+        <v>0.91048799999999996</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="6">
+        <v>0.86117500000000002</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0.91922400000000004</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="6">
+        <v>0.777922</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0.87376200000000004</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.88203843049999997</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="2" t="s">
+      <c r="B81" s="6">
+        <v>0.86078200000000005</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0.90201600000000004</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="6">
+        <v>0.87384099999999998</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0.88040799999999997</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0.90510100000000004</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0.89658800000000005</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="6">
+        <v>0.90625999999999995</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0.904192</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="6">
+        <v>0.89537100000000003</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="6">
+        <v>0.886378</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.89745785730000005</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="2" t="s">
+      <c r="B91" s="6">
+        <v>0.74418700000000004</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="6">
+        <v>0.885741</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.8843799215</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="2" t="s">
+      <c r="B93" s="6">
+        <v>0.85729500000000003</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="6">
+        <v>0.68078899999999998</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.91841899999999999</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.90655300000000005</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0.88581600000000005</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="6">
+        <v>0.83760900000000005</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="6">
+        <v>0.87747200000000003</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="6">
+        <v>0.75415100000000002</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0.88640200000000002</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="6">
+        <v>0.86315399999999998</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.86348138109999995</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="2" t="s">
+      <c r="B106" s="6">
+        <v>0.89521099999999998</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="6">
+        <v>0.90613200000000005</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="6">
+        <v>0.92215999999999998</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="6">
+        <v>0.90833799999999998</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="6">
+        <v>0.84733899999999995</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="6">
+        <v>0.82523899999999994</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="6">
+        <v>0.87797000000000003</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="6">
+        <v>0.91653099999999998</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" s="6">
+        <v>0.86918600000000001</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="6">
+        <v>0.89488900000000005</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="6">
+        <v>0.923489</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="6">
+        <v>0.88110999999999995</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="A118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.84883943429999997</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.88913384029999998</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.9006559932</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.89694435340000001</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.89815140000000004</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.88828380250000005</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.89444704870000002</v>
-      </c>
-    </row>
-    <row r="20" ht="25.5">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.87662288259999999</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.89658585146464698</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5">
-      <c r="A22" s="2" t="s">
+      <c r="B118" s="6">
+        <v>0.84175999999999995</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="6">
+        <v>0.90815500000000005</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.79996295269999995</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.80669089120000004</v>
+      <c r="B120" s="6">
+        <v>0.90299600000000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A98:B98"/>
+  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
